--- a/241204_datos_operaciones_programadas.xlsx
+++ b/241204_datos_operaciones_programadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miguel OneDrive\OneDrive - Universidad Politécnica de Madrid\docencia_24_25\mca_2425\entregas\Entrega 3 - Generacion columnas\datos quirófanos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feder\Desktop\GitHub\entrega-3-gc-grupo-mca-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{13E388D5-69D9-470B-AE72-C9E8CFF606F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{350FFFB0-85D8-4376-85AA-BDF129D6DE61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC9A2E6-DDD3-4FCC-A4B2-A453FC839C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operaciones" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Equipo de Cirugía</t>
   </si>
   <si>
-    <t xml:space="preserve">Hora inicio </t>
-  </si>
-  <si>
     <t>Hora fin</t>
   </si>
   <si>
@@ -1129,6 +1126,9 @@
   </si>
   <si>
     <t>Especialidad quirúrgica</t>
+  </si>
+  <si>
+    <t>Hora inicio</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1489,45 +1489,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="3" width="40.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>45630.614583333336</v>
@@ -1536,15 +1536,15 @@
         <v>45630.645833333336</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>45630.809027777781</v>
@@ -1553,15 +1553,15 @@
         <v>45630.833333333336</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>45630.600694444445</v>
@@ -1570,15 +1570,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>45630.677083333336</v>
@@ -1587,15 +1587,15 @@
         <v>45630.701388888891</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>45630.642361111109</v>
@@ -1604,15 +1604,15 @@
         <v>45630.684027777781</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>45630.479166666664</v>
@@ -1621,15 +1621,15 @@
         <v>45630.517361111109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>45630.534722222219</v>
@@ -1638,15 +1638,15 @@
         <v>45630.569444444445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
         <v>45630.569444444445</v>
@@ -1655,15 +1655,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <v>45630.809027777781</v>
@@ -1672,15 +1672,15 @@
         <v>45630.840277777781</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <v>45630.704861111109</v>
@@ -1689,15 +1689,15 @@
         <v>45630.736111111109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
         <v>45630.625</v>
@@ -1706,15 +1706,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <v>45630.618055555555</v>
@@ -1723,15 +1723,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <v>45630.508333333331</v>
@@ -1740,15 +1740,15 @@
         <v>45630.645833333336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
         <v>45630.78125</v>
@@ -1757,15 +1757,15 @@
         <v>45630.819444444445</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <v>45630.614583333336</v>
@@ -1774,15 +1774,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>45630.503472222219</v>
@@ -1791,15 +1791,15 @@
         <v>45630.607638888891</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
         <v>45630.565972222219</v>
@@ -1808,15 +1808,15 @@
         <v>45630.631944444445</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>45630.576388888891</v>
@@ -1825,15 +1825,15 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <v>45630.604166666664</v>
@@ -1842,15 +1842,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>45630.611111111109</v>
@@ -1859,15 +1859,15 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>45630.506944444445</v>
@@ -1876,15 +1876,15 @@
         <v>45630.534722222219</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>45630.604166666664</v>
@@ -1893,15 +1893,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
         <v>45630.572916666664</v>
@@ -1910,15 +1910,15 @@
         <v>45630.631944444445</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
         <v>45630.680555555555</v>
@@ -1927,15 +1927,15 @@
         <v>45630.982638888891</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
         <v>45630.760416666664</v>
@@ -1944,15 +1944,15 @@
         <v>45630.819444444445</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
         <v>45630.534722222219</v>
@@ -1961,15 +1961,15 @@
         <v>45630.572916666664</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>45630.604166666664</v>
@@ -1978,15 +1978,15 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>45630.5</v>
@@ -1995,15 +1995,15 @@
         <v>45630.746527777781</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>45630.5625</v>
@@ -2012,15 +2012,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>45630.763888888891</v>
@@ -2029,15 +2029,15 @@
         <v>45630.795138888891</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>45630.576388888891</v>
@@ -2046,15 +2046,15 @@
         <v>45630.611111111109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2">
         <v>45630.493055555555</v>
@@ -2063,15 +2063,15 @@
         <v>45630.694444444445</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2">
         <v>45630.614583333336</v>
@@ -2080,15 +2080,15 @@
         <v>45630.725694444445</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2">
         <v>45630.621527777781</v>
@@ -2097,15 +2097,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2">
         <v>45630.569444444445</v>
@@ -2114,15 +2114,15 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2">
         <v>45630.597222222219</v>
@@ -2131,15 +2131,15 @@
         <v>45630.690972222219</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2">
         <v>45630.6875</v>
@@ -2148,15 +2148,15 @@
         <v>45630.729166666664</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2">
         <v>45630.625</v>
@@ -2165,15 +2165,15 @@
         <v>45630.680555555555</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2">
         <v>45630.576388888891</v>
@@ -2182,15 +2182,15 @@
         <v>45630.611111111109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2">
         <v>45630.555555555555</v>
@@ -2199,15 +2199,15 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2">
         <v>45630.614583333336</v>
@@ -2216,15 +2216,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2">
         <v>45630.586805555555</v>
@@ -2233,15 +2233,15 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2">
         <v>45630.736111111109</v>
@@ -2250,15 +2250,15 @@
         <v>45630.763888888891</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2">
         <v>45630.520833333336</v>
@@ -2267,15 +2267,15 @@
         <v>45630.5625</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2">
         <v>45630.715277777781</v>
@@ -2284,15 +2284,15 @@
         <v>45630.746527777781</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2">
         <v>45630.53125</v>
@@ -2301,15 +2301,15 @@
         <v>45630.614583333336</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="2">
         <v>45630.604166666664</v>
@@ -2318,15 +2318,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
         <v>45630.725694444445</v>
@@ -2335,15 +2335,15 @@
         <v>45630.763888888891</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
         <v>45630.625</v>
@@ -2352,15 +2352,15 @@
         <v>45630.670138888891</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2">
         <v>45630.576388888891</v>
@@ -2369,15 +2369,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2">
         <v>45630.75</v>
@@ -2386,15 +2386,15 @@
         <v>45630.8125</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2">
         <v>45630.649305555555</v>
@@ -2403,15 +2403,15 @@
         <v>45630.71875</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="2">
         <v>45630.607638888891</v>
@@ -2420,15 +2420,15 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
         <v>45630.625</v>
@@ -2437,15 +2437,15 @@
         <v>45630.722222222219</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
         <v>45630.569444444445</v>
@@ -2454,15 +2454,15 @@
         <v>45630.631944444445</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
         <v>45630.493055555555</v>
@@ -2471,15 +2471,15 @@
         <v>45630.53125</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2">
         <v>45630.586805555555</v>
@@ -2488,15 +2488,15 @@
         <v>45630.642361111109</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2">
         <v>45630.569444444445</v>
@@ -2505,15 +2505,15 @@
         <v>45630.642361111109</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2">
         <v>45630.576388888891</v>
@@ -2522,15 +2522,15 @@
         <v>45630.600694444445</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2">
         <v>45630.597222222219</v>
@@ -2539,15 +2539,15 @@
         <v>45630.663194444445</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="2">
         <v>45630.472222222219</v>
@@ -2556,15 +2556,15 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2">
         <v>45630.513888888891</v>
@@ -2573,15 +2573,15 @@
         <v>45630.552083333336</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="2">
         <v>45630.576388888891</v>
@@ -2590,15 +2590,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2">
         <v>45630.586805555555</v>
@@ -2607,15 +2607,15 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2">
         <v>45630.475694444445</v>
@@ -2624,15 +2624,15 @@
         <v>45630.517361111109</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2">
         <v>45630.861111111109</v>
@@ -2641,15 +2641,15 @@
         <v>45630.885416666664</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="2">
         <v>45630.621527777781</v>
@@ -2658,15 +2658,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2">
         <v>45630.788194444445</v>
@@ -2675,15 +2675,15 @@
         <v>45630.826388888891</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2">
         <v>45630.607638888891</v>
@@ -2692,15 +2692,15 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2">
         <v>45630.690972222219</v>
@@ -2709,15 +2709,15 @@
         <v>45630.774305555555</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2">
         <v>45630.586805555555</v>
@@ -2726,15 +2726,15 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2">
         <v>45630.847222222219</v>
@@ -2743,15 +2743,15 @@
         <v>45630.881944444445</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2">
         <v>45630.496527777781</v>
@@ -2760,15 +2760,15 @@
         <v>45630.534722222219</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2">
         <v>45630.555555555555</v>
@@ -2777,15 +2777,15 @@
         <v>45630.631944444445</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2">
         <v>45630.489583333336</v>
@@ -2794,15 +2794,15 @@
         <v>45630.524305555555</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2">
         <v>45630.607638888891</v>
@@ -2811,15 +2811,15 @@
         <v>45630.708333333336</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
         <v>45630.583333333336</v>
@@ -2828,15 +2828,15 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2">
         <v>45630.833333333336</v>
@@ -2845,15 +2845,15 @@
         <v>45630.861111111109</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2">
         <v>45630.586805555555</v>
@@ -2862,15 +2862,15 @@
         <v>45630.642361111109</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2">
         <v>45630.493055555555</v>
@@ -2879,15 +2879,15 @@
         <v>45630.517361111109</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2">
         <v>45630.65625</v>
@@ -2896,15 +2896,15 @@
         <v>45630.684027777781</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2">
         <v>45630.545138888891</v>
@@ -2913,15 +2913,15 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2">
         <v>45630.621527777781</v>
@@ -2930,15 +2930,15 @@
         <v>45630.694444444445</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2">
         <v>45630.548611111109</v>
@@ -2947,15 +2947,15 @@
         <v>45630.635416666664</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2">
         <v>45630.475694444445</v>
@@ -2964,15 +2964,15 @@
         <v>45630.569444444445</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2">
         <v>45630.847222222219</v>
@@ -2981,15 +2981,15 @@
         <v>45630.989583333336</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2">
         <v>45630.618055555555</v>
@@ -2998,15 +2998,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2">
         <v>45630.524305555555</v>
@@ -3015,15 +3015,15 @@
         <v>45630.71875</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2">
         <v>45630.527777777781</v>
@@ -3032,15 +3032,15 @@
         <v>45630.600694444445</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2">
         <v>45630.548611111109</v>
@@ -3049,15 +3049,15 @@
         <v>45630.635416666664</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2">
         <v>45630.597222222219</v>
@@ -3066,15 +3066,15 @@
         <v>45630.690972222219</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2">
         <v>45630.569444444445</v>
@@ -3083,15 +3083,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2">
         <v>45630.611111111109</v>
@@ -3100,15 +3100,15 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2">
         <v>45630.878472222219</v>
@@ -3117,15 +3117,15 @@
         <v>45630.909722222219</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2">
         <v>45630.59375</v>
@@ -3134,15 +3134,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2">
         <v>45630.829861111109</v>
@@ -3151,15 +3151,15 @@
         <v>45630.864583333336</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2">
         <v>45630.892361111109</v>
@@ -3168,15 +3168,15 @@
         <v>45630.965277777781</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2">
         <v>45630.767361111109</v>
@@ -3185,15 +3185,15 @@
         <v>45630.829861111109</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2">
         <v>45630.607638888891</v>
@@ -3202,15 +3202,15 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2">
         <v>45630.472222222219</v>
@@ -3219,15 +3219,15 @@
         <v>45630.503472222219</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2">
         <v>45630.614583333336</v>
@@ -3236,15 +3236,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2">
         <v>45630.815972222219</v>
@@ -3253,15 +3253,15 @@
         <v>45630.850694444445</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2">
         <v>45630.5</v>
@@ -3270,15 +3270,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2">
         <v>45630.614583333336</v>
@@ -3287,15 +3287,15 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2">
         <v>45630.618055555555</v>
@@ -3304,15 +3304,15 @@
         <v>45630.663194444445</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2">
         <v>45630.618055555555</v>
@@ -3321,15 +3321,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2">
         <v>45630.645833333336</v>
@@ -3338,15 +3338,15 @@
         <v>45630.697916666664</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" s="2">
         <v>45630.527777777781</v>
@@ -3355,15 +3355,15 @@
         <v>45630.635416666664</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2">
         <v>45630.607638888891</v>
@@ -3372,15 +3372,15 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2">
         <v>45630.614583333336</v>
@@ -3389,15 +3389,15 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2">
         <v>45630.704861111109</v>
@@ -3406,15 +3406,15 @@
         <v>45630.736111111109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2">
         <v>45630.618055555555</v>
@@ -3423,15 +3423,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2">
         <v>45630.572916666664</v>
@@ -3440,15 +3440,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2">
         <v>45630.600694444445</v>
@@ -3457,15 +3457,15 @@
         <v>45630.642361111109</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" s="2">
         <v>45630.663194444445</v>
@@ -3474,15 +3474,15 @@
         <v>45630.711805555555</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2">
         <v>45630.621527777781</v>
@@ -3491,15 +3491,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2">
         <v>45630.579861111109</v>
@@ -3508,15 +3508,15 @@
         <v>45630.982638888891</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2">
         <v>45630.5625</v>
@@ -3525,15 +3525,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2">
         <v>45630.576388888891</v>
@@ -3542,15 +3542,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2">
         <v>45630.857638888891</v>
@@ -3559,15 +3559,15 @@
         <v>45630.881944444445</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2">
         <v>45630.5625</v>
@@ -3576,15 +3576,15 @@
         <v>45630.600694444445</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2">
         <v>45630.576388888891</v>
@@ -3593,15 +3593,15 @@
         <v>45630.708333333336</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2">
         <v>45630.614583333336</v>
@@ -3610,15 +3610,15 @@
         <v>45630.725694444445</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2">
         <v>45630.569444444445</v>
@@ -3627,15 +3627,15 @@
         <v>45630.895833333336</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2">
         <v>45630.579861111109</v>
@@ -3644,15 +3644,15 @@
         <v>45630.982638888891</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2">
         <v>45630.614583333336</v>
@@ -3661,15 +3661,15 @@
         <v>45630.6875</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2">
         <v>45630.576388888891</v>
@@ -3678,15 +3678,15 @@
         <v>45630.767361111109</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2">
         <v>45630.576388888891</v>
@@ -3695,15 +3695,15 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2">
         <v>45630.743055555555</v>
@@ -3712,15 +3712,15 @@
         <v>45630.784722222219</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2">
         <v>45630.611111111109</v>
@@ -3729,15 +3729,15 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2">
         <v>45630.607638888891</v>
@@ -3746,15 +3746,15 @@
         <v>45630.690972222219</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2">
         <v>45630.604166666664</v>
@@ -3763,15 +3763,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2">
         <v>45630.5625</v>
@@ -3780,15 +3780,15 @@
         <v>45630.638888888891</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2">
         <v>45630.878472222219</v>
@@ -3797,15 +3797,15 @@
         <v>45630.909722222219</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2">
         <v>45630.65625</v>
@@ -3814,15 +3814,15 @@
         <v>45630.715277777781</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2">
         <v>45630.53125</v>
@@ -3831,15 +3831,15 @@
         <v>45630.614583333336</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2">
         <v>45630.489583333336</v>
@@ -3848,15 +3848,15 @@
         <v>45630.548611111109</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2">
         <v>45630.5</v>
@@ -3865,15 +3865,15 @@
         <v>45630.538194444445</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2">
         <v>45630.583333333336</v>
@@ -3882,15 +3882,15 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2">
         <v>45630.5</v>
@@ -3899,15 +3899,15 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2">
         <v>45630.600694444445</v>
@@ -3916,15 +3916,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2">
         <v>45630.513888888891</v>
@@ -3933,15 +3933,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2">
         <v>45630.576388888891</v>
@@ -3950,15 +3950,15 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2">
         <v>45630.78125</v>
@@ -3967,15 +3967,15 @@
         <v>45630.815972222219</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2">
         <v>45630.534722222219</v>
@@ -3984,15 +3984,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2">
         <v>45630.604166666664</v>
@@ -4001,15 +4001,15 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2">
         <v>45630.618055555555</v>
@@ -4018,15 +4018,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2">
         <v>45630.524305555555</v>
@@ -4035,15 +4035,15 @@
         <v>45630.583333333336</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D150" s="2">
         <v>45630.732638888891</v>
@@ -4052,15 +4052,15 @@
         <v>45630.763888888891</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2">
         <v>45630.697916666664</v>
@@ -4069,15 +4069,15 @@
         <v>45630.732638888891</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2">
         <v>45630.493055555555</v>
@@ -4086,15 +4086,15 @@
         <v>45630.996527777781</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2">
         <v>45630.336805555555</v>
@@ -4103,15 +4103,15 @@
         <v>45630.413194444445</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2">
         <v>45630.475694444445</v>
@@ -4120,15 +4120,15 @@
         <v>45630.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2">
         <v>45630.71875</v>
@@ -4137,15 +4137,15 @@
         <v>45630.75</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2">
         <v>45630.59375</v>
@@ -4154,15 +4154,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2">
         <v>45630.78125</v>
@@ -4171,15 +4171,15 @@
         <v>45630.826388888891</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2">
         <v>45630.576388888891</v>
@@ -4188,15 +4188,15 @@
         <v>45630.708333333336</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2">
         <v>45630.614583333336</v>
@@ -4205,15 +4205,15 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2">
         <v>45630.739583333336</v>
@@ -4222,15 +4222,15 @@
         <v>45630.999305555553</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D161" s="2">
         <v>45630.572916666664</v>
@@ -4239,15 +4239,15 @@
         <v>45630.694444444445</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D162" s="2">
         <v>45630.517361111109</v>
@@ -4256,15 +4256,15 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2">
         <v>45630.524305555555</v>
@@ -4273,15 +4273,15 @@
         <v>45630.572916666664</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2">
         <v>45630.510416666664</v>
@@ -4290,15 +4290,15 @@
         <v>45630.541666666664</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2">
         <v>45630.736111111109</v>
@@ -4307,15 +4307,15 @@
         <v>45630.767361111109</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D166" s="2">
         <v>45630.711805555555</v>
@@ -4324,15 +4324,15 @@
         <v>45630.791666666664</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2">
         <v>45630.875</v>
@@ -4341,15 +4341,15 @@
         <v>45630.899305555555</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D168" s="2">
         <v>45630.576388888891</v>
@@ -4358,15 +4358,15 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D169" s="2">
         <v>45630.607638888891</v>
@@ -4375,15 +4375,15 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D170" s="2">
         <v>45630.756944444445</v>
@@ -4392,15 +4392,15 @@
         <v>45630.840277777781</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171" s="2">
         <v>45630.472222222219</v>
@@ -4409,15 +4409,15 @@
         <v>45630.506944444445</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" s="2">
         <v>45630.5625</v>
@@ -4426,15 +4426,15 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2">
         <v>45630.614583333336</v>
@@ -4443,15 +4443,15 @@
         <v>45630.6875</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D174" s="2">
         <v>45630.614583333336</v>
@@ -4460,15 +4460,15 @@
         <v>45630.715277777781</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D175" s="2">
         <v>45630.822916666664</v>
@@ -4477,15 +4477,15 @@
         <v>45630.854166666664</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D176" s="2">
         <v>45630.618055555555</v>
@@ -4496,7 +4496,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{0BE32B94-EC1A-4E75-B65F-7520E95FEB00}">
-    <sortState ref="A2:E176">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E176">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -4505,12 +4505,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f6ad4708-cd8a-45fe-98bf-2842077436f6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4767,17 +4766,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f6ad4708-cd8a-45fe-98bf-2842077436f6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85901CD3-2790-4B17-B6D1-4F06F7324B82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9EF320-48C0-4DDD-B8CB-871D0E6B4C67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="55a32cf4-c6f7-4b7e-b4ea-547c22e252f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ad4708-cd8a-45fe-98bf-2842077436f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4802,18 +4811,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9EF320-48C0-4DDD-B8CB-871D0E6B4C67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85901CD3-2790-4B17-B6D1-4F06F7324B82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="55a32cf4-c6f7-4b7e-b4ea-547c22e252f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ad4708-cd8a-45fe-98bf-2842077436f6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/241204_datos_operaciones_programadas.xlsx
+++ b/241204_datos_operaciones_programadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feder\Desktop\GitHub\entrega-3-gc-grupo-mca-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC9A2E6-DDD3-4FCC-A4B2-A453FC839C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6241B84-2EA9-4213-A18E-2142A40C57E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,101 +1521,101 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.336805555555</v>
       </c>
       <c r="E2" s="2">
-        <v>45630.645833333336</v>
+        <v>45630.413194444445</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>45630.809027777781</v>
+        <v>45630.472222222219</v>
       </c>
       <c r="E3" s="2">
-        <v>45630.833333333336</v>
+        <v>45630.503472222219</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.472222222219</v>
       </c>
       <c r="E4" s="2">
-        <v>45630.65625</v>
+        <v>45630.506944444445</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.472222222219</v>
       </c>
       <c r="E5" s="2">
-        <v>45630.701388888891</v>
+        <v>45630.673611111109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>45630.642361111109</v>
+        <v>45630.475694444445</v>
       </c>
       <c r="E6" s="2">
-        <v>45630.684027777781</v>
+        <v>45630.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>45630.479166666664</v>
+        <v>45630.475694444445</v>
       </c>
       <c r="E7" s="2">
         <v>45630.517361111109</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45630.534722222219</v>
+        <v>45630.475694444445</v>
       </c>
       <c r="E8" s="2">
         <v>45630.569444444445</v>
@@ -1640,223 +1640,223 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.479166666664</v>
       </c>
       <c r="E9" s="2">
-        <v>45630.625</v>
+        <v>45630.517361111109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>45630.809027777781</v>
+        <v>45630.489583333336</v>
       </c>
       <c r="E10" s="2">
-        <v>45630.840277777781</v>
+        <v>45630.524305555555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>45630.704861111109</v>
+        <v>45630.489583333336</v>
       </c>
       <c r="E11" s="2">
-        <v>45630.736111111109</v>
+        <v>45630.548611111109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>45630.625</v>
+        <v>45630.493055555555</v>
       </c>
       <c r="E12" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.517361111109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.493055555555</v>
       </c>
       <c r="E13" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.53125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>45630.508333333331</v>
+        <v>45630.493055555555</v>
       </c>
       <c r="E14" s="2">
-        <v>45630.645833333336</v>
+        <v>45630.694444444445</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>45630.78125</v>
+        <v>45630.493055555555</v>
       </c>
       <c r="E15" s="2">
-        <v>45630.819444444445</v>
+        <v>45630.996527777781</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.496527777781</v>
       </c>
       <c r="E16" s="2">
-        <v>45630.65625</v>
+        <v>45630.534722222219</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>45630.503472222219</v>
+        <v>45630.5</v>
       </c>
       <c r="E17" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.538194444445</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>45630.565972222219</v>
+        <v>45630.5</v>
       </c>
       <c r="E18" s="2">
-        <v>45630.631944444445</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.5</v>
       </c>
       <c r="E19" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.677083333336</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.5</v>
       </c>
       <c r="E20" s="2">
-        <v>45630.65625</v>
+        <v>45630.746527777781</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.503472222219</v>
       </c>
       <c r="E21" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.607638888891</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1878,699 +1878,699 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.508333333331</v>
       </c>
       <c r="E23" s="2">
-        <v>45630.65625</v>
+        <v>45630.645833333336</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.510416666664</v>
       </c>
       <c r="E24" s="2">
-        <v>45630.631944444445</v>
+        <v>45630.541666666664</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2">
-        <v>45630.680555555555</v>
+        <v>45630.513888888891</v>
       </c>
       <c r="E25" s="2">
-        <v>45630.982638888891</v>
+        <v>45630.552083333336</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>45630.760416666664</v>
+        <v>45630.513888888891</v>
       </c>
       <c r="E26" s="2">
-        <v>45630.819444444445</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
-        <v>45630.534722222219</v>
+        <v>45630.517361111109</v>
       </c>
       <c r="E27" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.520833333336</v>
       </c>
       <c r="E28" s="2">
-        <v>45630.652777777781</v>
+        <v>45630.5625</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
-        <v>45630.5</v>
+        <v>45630.524305555555</v>
       </c>
       <c r="E29" s="2">
-        <v>45630.746527777781</v>
+        <v>45630.572916666664</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>45630.5625</v>
+        <v>45630.524305555555</v>
       </c>
       <c r="E30" s="2">
-        <v>45630.625</v>
+        <v>45630.583333333336</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>45630.763888888891</v>
+        <v>45630.524305555555</v>
       </c>
       <c r="E31" s="2">
-        <v>45630.795138888891</v>
+        <v>45630.71875</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.527777777781</v>
       </c>
       <c r="E32" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.600694444445</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
-        <v>45630.493055555555</v>
+        <v>45630.527777777781</v>
       </c>
       <c r="E33" s="2">
-        <v>45630.694444444445</v>
+        <v>45630.635416666664</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
+        <v>45630.53125</v>
+      </c>
+      <c r="E34" s="2">
         <v>45630.614583333336</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45630.725694444445</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.53125</v>
       </c>
       <c r="E35" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.614583333336</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
+        <v>45630.534722222219</v>
+      </c>
+      <c r="E36" s="2">
         <v>45630.569444444445</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2">
-        <v>45630.597222222219</v>
+        <v>45630.534722222219</v>
       </c>
       <c r="E37" s="2">
-        <v>45630.690972222219</v>
+        <v>45630.572916666664</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
-        <v>45630.6875</v>
+        <v>45630.534722222219</v>
       </c>
       <c r="E38" s="2">
-        <v>45630.729166666664</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>45630.625</v>
+        <v>45630.545138888891</v>
       </c>
       <c r="E39" s="2">
-        <v>45630.680555555555</v>
+        <v>45630.628472222219</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.548611111109</v>
       </c>
       <c r="E40" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.635416666664</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>45630.555555555555</v>
+        <v>45630.548611111109</v>
       </c>
       <c r="E41" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.635416666664</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.555555555555</v>
       </c>
       <c r="E42" s="2">
-        <v>45630.65625</v>
+        <v>45630.631944444445</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="2">
-        <v>45630.586805555555</v>
+        <v>45630.555555555555</v>
       </c>
       <c r="E43" s="2">
-        <v>45630.628472222219</v>
+        <v>45630.677083333336</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2">
-        <v>45630.736111111109</v>
+        <v>45630.5625</v>
       </c>
       <c r="E44" s="2">
-        <v>45630.763888888891</v>
+        <v>45630.600694444445</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="2">
-        <v>45630.520833333336</v>
+        <v>45630.5625</v>
       </c>
       <c r="E45" s="2">
-        <v>45630.5625</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2">
-        <v>45630.715277777781</v>
+        <v>45630.5625</v>
       </c>
       <c r="E46" s="2">
-        <v>45630.746527777781</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>45630.53125</v>
+        <v>45630.5625</v>
       </c>
       <c r="E47" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.5625</v>
       </c>
       <c r="E48" s="2">
-        <v>45630.65625</v>
+        <v>45630.638888888891</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2">
-        <v>45630.725694444445</v>
+        <v>45630.565972222219</v>
       </c>
       <c r="E49" s="2">
-        <v>45630.763888888891</v>
+        <v>45630.631944444445</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>45630.625</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E50" s="2">
-        <v>45630.670138888891</v>
+        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E51" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
-        <v>45630.75</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E52" s="2">
-        <v>45630.8125</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2">
-        <v>45630.649305555555</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E53" s="2">
-        <v>45630.71875</v>
+        <v>45630.631944444445</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E54" s="2">
-        <v>45630.652777777781</v>
+        <v>45630.642361111109</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2">
-        <v>45630.625</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E55" s="2">
-        <v>45630.722222222219</v>
+        <v>45630.895833333336</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.572916666664</v>
       </c>
       <c r="E56" s="2">
-        <v>45630.631944444445</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" s="2">
-        <v>45630.493055555555</v>
+        <v>45630.572916666664</v>
       </c>
       <c r="E57" s="2">
-        <v>45630.53125</v>
+        <v>45630.631944444445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2">
-        <v>45630.586805555555</v>
+        <v>45630.572916666664</v>
       </c>
       <c r="E58" s="2">
-        <v>45630.642361111109</v>
+        <v>45630.694444444445</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E59" s="2">
-        <v>45630.642361111109</v>
+        <v>45630.600694444445</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2">
         <v>45630.576388888891</v>
       </c>
       <c r="E60" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.611111111109</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2">
-        <v>45630.597222222219</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E61" s="2">
-        <v>45630.663194444445</v>
+        <v>45630.611111111109</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>45630.472222222219</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E62" s="2">
-        <v>45630.673611111109</v>
+        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2">
-        <v>45630.513888888891</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E63" s="2">
-        <v>45630.552083333336</v>
+        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,257 +2592,257 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2">
-        <v>45630.586805555555</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E65" s="2">
-        <v>45630.628472222219</v>
+        <v>45630.625</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2">
-        <v>45630.475694444445</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E66" s="2">
-        <v>45630.517361111109</v>
+        <v>45630.628472222219</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2">
-        <v>45630.861111111109</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E67" s="2">
-        <v>45630.885416666664</v>
+        <v>45630.628472222219</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E68" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2">
-        <v>45630.788194444445</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E69" s="2">
-        <v>45630.826388888891</v>
+        <v>45630.708333333336</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E70" s="2">
-        <v>45630.673611111109</v>
+        <v>45630.708333333336</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2">
-        <v>45630.690972222219</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E71" s="2">
-        <v>45630.774305555555</v>
+        <v>45630.767361111109</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2">
-        <v>45630.586805555555</v>
+        <v>45630.579861111109</v>
       </c>
       <c r="E72" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.982638888891</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2">
-        <v>45630.847222222219</v>
+        <v>45630.579861111109</v>
       </c>
       <c r="E73" s="2">
-        <v>45630.881944444445</v>
+        <v>45630.982638888891</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2">
-        <v>45630.496527777781</v>
+        <v>45630.583333333336</v>
       </c>
       <c r="E74" s="2">
-        <v>45630.534722222219</v>
+        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2">
-        <v>45630.555555555555</v>
+        <v>45630.583333333336</v>
       </c>
       <c r="E75" s="2">
-        <v>45630.631944444445</v>
+        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2">
-        <v>45630.489583333336</v>
+        <v>45630.586805555555</v>
       </c>
       <c r="E76" s="2">
-        <v>45630.524305555555</v>
+        <v>45630.621527777781</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.586805555555</v>
       </c>
       <c r="E77" s="2">
-        <v>45630.708333333336</v>
+        <v>45630.628472222219</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" s="2">
-        <v>45630.583333333336</v>
+        <v>45630.586805555555</v>
       </c>
       <c r="E78" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.628472222219</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2">
-        <v>45630.833333333336</v>
+        <v>45630.586805555555</v>
       </c>
       <c r="E79" s="2">
-        <v>45630.861111111109</v>
+        <v>45630.642361111109</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2864,135 +2864,135 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
-        <v>45630.493055555555</v>
+        <v>45630.59375</v>
       </c>
       <c r="E81" s="2">
-        <v>45630.517361111109</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2">
-        <v>45630.65625</v>
+        <v>45630.59375</v>
       </c>
       <c r="E82" s="2">
-        <v>45630.684027777781</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83" s="2">
-        <v>45630.545138888891</v>
+        <v>45630.597222222219</v>
       </c>
       <c r="E83" s="2">
-        <v>45630.628472222219</v>
+        <v>45630.663194444445</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.597222222219</v>
       </c>
       <c r="E84" s="2">
-        <v>45630.694444444445</v>
+        <v>45630.690972222219</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2">
-        <v>45630.548611111109</v>
+        <v>45630.597222222219</v>
       </c>
       <c r="E85" s="2">
-        <v>45630.635416666664</v>
+        <v>45630.690972222219</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2">
-        <v>45630.475694444445</v>
+        <v>45630.600694444445</v>
       </c>
       <c r="E86" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.642361111109</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2">
-        <v>45630.847222222219</v>
+        <v>45630.600694444445</v>
       </c>
       <c r="E87" s="2">
-        <v>45630.989583333336</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.600694444445</v>
       </c>
       <c r="E88" s="2">
         <v>45630.65625</v>
@@ -3000,801 +3000,801 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D89" s="2">
-        <v>45630.524305555555</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E89" s="2">
-        <v>45630.71875</v>
+        <v>45630.652777777781</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>45630.527777777781</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E90" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.652777777781</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2">
-        <v>45630.548611111109</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E91" s="2">
-        <v>45630.635416666664</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D92" s="2">
-        <v>45630.597222222219</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E92" s="2">
-        <v>45630.690972222219</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D93" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E93" s="2">
-        <v>45630.625</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E94" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2">
-        <v>45630.878472222219</v>
+        <v>45630.607638888891</v>
       </c>
       <c r="E95" s="2">
-        <v>45630.909722222219</v>
+        <v>45630.652777777781</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>45630.59375</v>
+        <v>45630.607638888891</v>
       </c>
       <c r="E96" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.652777777781</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2">
-        <v>45630.829861111109</v>
+        <v>45630.607638888891</v>
       </c>
       <c r="E97" s="2">
-        <v>45630.864583333336</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2">
-        <v>45630.892361111109</v>
+        <v>45630.607638888891</v>
       </c>
       <c r="E98" s="2">
-        <v>45630.965277777781</v>
+        <v>45630.673611111109</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D99" s="2">
-        <v>45630.767361111109</v>
+        <v>45630.607638888891</v>
       </c>
       <c r="E99" s="2">
-        <v>45630.829861111109</v>
+        <v>45630.673611111109</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2">
         <v>45630.607638888891</v>
       </c>
       <c r="E100" s="2">
-        <v>45630.652777777781</v>
+        <v>45630.690972222219</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2">
-        <v>45630.472222222219</v>
+        <v>45630.607638888891</v>
       </c>
       <c r="E101" s="2">
-        <v>45630.503472222219</v>
+        <v>45630.708333333336</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.611111111109</v>
       </c>
       <c r="E102" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.673611111109</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D103" s="2">
-        <v>45630.815972222219</v>
+        <v>45630.611111111109</v>
       </c>
       <c r="E103" s="2">
-        <v>45630.850694444445</v>
+        <v>45630.677083333336</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2">
-        <v>45630.5</v>
+        <v>45630.611111111109</v>
       </c>
       <c r="E104" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.677083333336</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D105" s="2">
         <v>45630.614583333336</v>
       </c>
       <c r="E105" s="2">
-        <v>45630.652777777781</v>
+        <v>45630.645833333336</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E106" s="2">
-        <v>45630.663194444445</v>
+        <v>45630.652777777781</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E107" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.652777777781</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D108" s="2">
-        <v>45630.645833333336</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E108" s="2">
-        <v>45630.697916666664</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D109" s="2">
-        <v>45630.527777777781</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E109" s="2">
-        <v>45630.635416666664</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E110" s="2">
-        <v>45630.673611111109</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2">
         <v>45630.614583333336</v>
       </c>
       <c r="E111" s="2">
-        <v>45630.652777777781</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2">
-        <v>45630.704861111109</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E112" s="2">
-        <v>45630.736111111109</v>
+        <v>45630.6875</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E113" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.6875</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E114" s="2">
-        <v>45630.625</v>
+        <v>45630.715277777781</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D115" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E115" s="2">
-        <v>45630.642361111109</v>
+        <v>45630.725694444445</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2">
-        <v>45630.663194444445</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E116" s="2">
-        <v>45630.711805555555</v>
+        <v>45630.725694444445</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E117" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.65625</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2">
-        <v>45630.579861111109</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E118" s="2">
-        <v>45630.982638888891</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>45630.5625</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E119" s="2">
-        <v>45630.625</v>
+        <v>45630.663194444445</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E120" s="2">
-        <v>45630.625</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>45630.857638888891</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E121" s="2">
-        <v>45630.881944444445</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2">
-        <v>45630.5625</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E122" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E123" s="2">
-        <v>45630.708333333336</v>
+        <v>45630.694444444445</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D124" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.621527777781</v>
       </c>
       <c r="E124" s="2">
-        <v>45630.725694444445</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.621527777781</v>
       </c>
       <c r="E125" s="2">
-        <v>45630.895833333336</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2">
-        <v>45630.579861111109</v>
+        <v>45630.621527777781</v>
       </c>
       <c r="E126" s="2">
-        <v>45630.982638888891</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.621527777781</v>
       </c>
       <c r="E127" s="2">
-        <v>45630.6875</v>
+        <v>45630.694444444445</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D128" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.625</v>
       </c>
       <c r="E128" s="2">
-        <v>45630.767361111109</v>
+        <v>45630.659722222219</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.625</v>
       </c>
       <c r="E129" s="2">
-        <v>45630.628472222219</v>
+        <v>45630.670138888891</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D130" s="2">
-        <v>45630.743055555555</v>
+        <v>45630.625</v>
       </c>
       <c r="E130" s="2">
-        <v>45630.784722222219</v>
+        <v>45630.680555555555</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D131" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.625</v>
       </c>
       <c r="E131" s="2">
-        <v>45630.673611111109</v>
+        <v>45630.722222222219</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D132" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.642361111109</v>
       </c>
       <c r="E132" s="2">
-        <v>45630.690972222219</v>
+        <v>45630.684027777781</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.645833333336</v>
       </c>
       <c r="E133" s="2">
-        <v>45630.65625</v>
+        <v>45630.697916666664</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D134" s="2">
-        <v>45630.5625</v>
+        <v>45630.649305555555</v>
       </c>
       <c r="E134" s="2">
-        <v>45630.638888888891</v>
+        <v>45630.71875</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2">
-        <v>45630.878472222219</v>
+        <v>45630.65625</v>
       </c>
       <c r="E135" s="2">
-        <v>45630.909722222219</v>
+        <v>45630.684027777781</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,237 +3816,237 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>45630.53125</v>
+        <v>45630.663194444445</v>
       </c>
       <c r="E137" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.711805555555</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D138" s="2">
-        <v>45630.489583333336</v>
+        <v>45630.677083333336</v>
       </c>
       <c r="E138" s="2">
-        <v>45630.548611111109</v>
+        <v>45630.701388888891</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D139" s="2">
-        <v>45630.5</v>
+        <v>45630.680555555555</v>
       </c>
       <c r="E139" s="2">
-        <v>45630.538194444445</v>
+        <v>45630.982638888891</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D140" s="2">
-        <v>45630.583333333336</v>
+        <v>45630.6875</v>
       </c>
       <c r="E140" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.729166666664</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2">
-        <v>45630.5</v>
+        <v>45630.690972222219</v>
       </c>
       <c r="E141" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.774305555555</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.697916666664</v>
       </c>
       <c r="E142" s="2">
-        <v>45630.65625</v>
+        <v>45630.732638888891</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2">
-        <v>45630.513888888891</v>
+        <v>45630.704861111109</v>
       </c>
       <c r="E143" s="2">
-        <v>45630.65625</v>
+        <v>45630.736111111109</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.704861111109</v>
       </c>
       <c r="E144" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.736111111109</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>338</v>
+        <v>195</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2">
-        <v>45630.78125</v>
+        <v>45630.711805555555</v>
       </c>
       <c r="E145" s="2">
-        <v>45630.815972222219</v>
+        <v>45630.791666666664</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D146" s="2">
-        <v>45630.534722222219</v>
+        <v>45630.715277777781</v>
       </c>
       <c r="E146" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.746527777781</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.71875</v>
       </c>
       <c r="E147" s="2">
-        <v>45630.652777777781</v>
+        <v>45630.75</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D148" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.725694444445</v>
       </c>
       <c r="E148" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.763888888891</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2">
-        <v>45630.524305555555</v>
+        <v>45630.732638888891</v>
       </c>
       <c r="E149" s="2">
-        <v>45630.583333333336</v>
+        <v>45630.763888888891</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D150" s="2">
-        <v>45630.732638888891</v>
+        <v>45630.736111111109</v>
       </c>
       <c r="E150" s="2">
         <v>45630.763888888891</v>
@@ -4054,450 +4054,450 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2">
-        <v>45630.697916666664</v>
+        <v>45630.736111111109</v>
       </c>
       <c r="E151" s="2">
-        <v>45630.732638888891</v>
+        <v>45630.767361111109</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2">
-        <v>45630.493055555555</v>
+        <v>45630.739583333336</v>
       </c>
       <c r="E152" s="2">
-        <v>45630.996527777781</v>
+        <v>45630.999305555553</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2">
-        <v>45630.336805555555</v>
+        <v>45630.743055555555</v>
       </c>
       <c r="E153" s="2">
-        <v>45630.413194444445</v>
+        <v>45630.784722222219</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D154" s="2">
-        <v>45630.475694444445</v>
+        <v>45630.75</v>
       </c>
       <c r="E154" s="2">
-        <v>45630.5</v>
+        <v>45630.8125</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D155" s="2">
-        <v>45630.71875</v>
+        <v>45630.756944444445</v>
       </c>
       <c r="E155" s="2">
-        <v>45630.75</v>
+        <v>45630.840277777781</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D156" s="2">
-        <v>45630.59375</v>
+        <v>45630.760416666664</v>
       </c>
       <c r="E156" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.819444444445</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D157" s="2">
-        <v>45630.78125</v>
+        <v>45630.763888888891</v>
       </c>
       <c r="E157" s="2">
-        <v>45630.826388888891</v>
+        <v>45630.795138888891</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D158" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.767361111109</v>
       </c>
       <c r="E158" s="2">
-        <v>45630.708333333336</v>
+        <v>45630.829861111109</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.78125</v>
       </c>
       <c r="E159" s="2">
-        <v>45630.65625</v>
+        <v>45630.815972222219</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2">
-        <v>45630.739583333336</v>
+        <v>45630.78125</v>
       </c>
       <c r="E160" s="2">
-        <v>45630.999305555553</v>
+        <v>45630.819444444445</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.78125</v>
       </c>
       <c r="E161" s="2">
-        <v>45630.694444444445</v>
+        <v>45630.826388888891</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D162" s="2">
-        <v>45630.517361111109</v>
+        <v>45630.788194444445</v>
       </c>
       <c r="E162" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.826388888891</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>45630.524305555555</v>
+        <v>45630.809027777781</v>
       </c>
       <c r="E163" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.833333333336</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D164" s="2">
-        <v>45630.510416666664</v>
+        <v>45630.809027777781</v>
       </c>
       <c r="E164" s="2">
-        <v>45630.541666666664</v>
+        <v>45630.840277777781</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D165" s="2">
-        <v>45630.736111111109</v>
+        <v>45630.815972222219</v>
       </c>
       <c r="E165" s="2">
-        <v>45630.767361111109</v>
+        <v>45630.850694444445</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="2">
-        <v>45630.711805555555</v>
+        <v>45630.822916666664</v>
       </c>
       <c r="E166" s="2">
-        <v>45630.791666666664</v>
+        <v>45630.854166666664</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D167" s="2">
-        <v>45630.875</v>
+        <v>45630.829861111109</v>
       </c>
       <c r="E167" s="2">
-        <v>45630.899305555555</v>
+        <v>45630.864583333336</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D168" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.833333333336</v>
       </c>
       <c r="E168" s="2">
-        <v>45630.628472222219</v>
+        <v>45630.861111111109</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D169" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.847222222219</v>
       </c>
       <c r="E169" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.881944444445</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2">
-        <v>45630.756944444445</v>
+        <v>45630.847222222219</v>
       </c>
       <c r="E170" s="2">
-        <v>45630.840277777781</v>
+        <v>45630.989583333336</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2">
-        <v>45630.472222222219</v>
+        <v>45630.857638888891</v>
       </c>
       <c r="E171" s="2">
-        <v>45630.506944444445</v>
+        <v>45630.881944444445</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D172" s="2">
-        <v>45630.5625</v>
+        <v>45630.861111111109</v>
       </c>
       <c r="E172" s="2">
-        <v>45630.625</v>
+        <v>45630.885416666664</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.875</v>
       </c>
       <c r="E173" s="2">
-        <v>45630.6875</v>
+        <v>45630.899305555555</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D174" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.878472222219</v>
       </c>
       <c r="E174" s="2">
-        <v>45630.715277777781</v>
+        <v>45630.909722222219</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2">
-        <v>45630.822916666664</v>
+        <v>45630.878472222219</v>
       </c>
       <c r="E175" s="2">
-        <v>45630.854166666664</v>
+        <v>45630.909722222219</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D176" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.892361111109</v>
       </c>
       <c r="E176" s="2">
-        <v>45630.694444444445</v>
+        <v>45630.965277777781</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{0BE32B94-EC1A-4E75-B65F-7520E95FEB00}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E176">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4505,11 +4505,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f6ad4708-cd8a-45fe-98bf-2842077436f6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4766,27 +4767,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f6ad4708-cd8a-45fe-98bf-2842077436f6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9EF320-48C0-4DDD-B8CB-871D0E6B4C67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85901CD3-2790-4B17-B6D1-4F06F7324B82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="55a32cf4-c6f7-4b7e-b4ea-547c22e252f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ad4708-cd8a-45fe-98bf-2842077436f6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4811,9 +4802,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85901CD3-2790-4B17-B6D1-4F06F7324B82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9EF320-48C0-4DDD-B8CB-871D0E6B4C67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="55a32cf4-c6f7-4b7e-b4ea-547c22e252f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ad4708-cd8a-45fe-98bf-2842077436f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>